--- a/CumulativeTestsByTypeByCounty/2021-02-19.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-19.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>46526</v>
+        <v>46895</v>
       </c>
       <c r="C2" s="4">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="D2" s="4">
-        <v>5288</v>
+        <v>5589</v>
       </c>
       <c r="E2" s="4">
-        <v>53216</v>
+        <v>53890</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3883</v>
+        <v>3917</v>
       </c>
       <c r="C3" s="4">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4">
-        <v>1822</v>
+        <v>1890</v>
       </c>
       <c r="E3" s="4">
-        <v>5889</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>49043</v>
+        <v>49701</v>
       </c>
       <c r="C4" s="4">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="D4" s="4">
-        <v>15446</v>
+        <v>16503</v>
       </c>
       <c r="E4" s="4">
-        <v>65938</v>
+        <v>67665</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6383</v>
+        <v>6534</v>
       </c>
       <c r="C5" s="4">
-        <v>1965</v>
+        <v>1992</v>
       </c>
       <c r="D5" s="4">
-        <v>4034</v>
+        <v>4201</v>
       </c>
       <c r="E5" s="4">
-        <v>12382</v>
+        <v>12727</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2693</v>
+        <v>2708</v>
       </c>
       <c r="C6" s="4">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D6" s="4">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E6" s="4">
-        <v>3488</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C7" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" s="4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4">
-        <v>883</v>
+        <v>899</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>40435</v>
+        <v>46574</v>
       </c>
       <c r="C8" s="4">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D8" s="4">
-        <v>3419</v>
+        <v>3574</v>
       </c>
       <c r="E8" s="4">
-        <v>44806</v>
+        <v>51107</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15317</v>
+        <v>15549</v>
       </c>
       <c r="C9" s="4">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D9" s="4">
-        <v>732</v>
+        <v>799</v>
       </c>
       <c r="E9" s="4">
-        <v>16453</v>
+        <v>16759</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="C10" s="4">
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E10" s="4">
-        <v>2103</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6718</v>
+        <v>6900</v>
       </c>
       <c r="C11" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D11" s="4">
-        <v>2450</v>
+        <v>2561</v>
       </c>
       <c r="E11" s="4">
-        <v>9560</v>
+        <v>9856</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>43560</v>
+        <v>44256</v>
       </c>
       <c r="C12" s="4">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="4">
-        <v>12541</v>
+        <v>13037</v>
       </c>
       <c r="E12" s="4">
-        <v>57130</v>
+        <v>58338</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C13" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="E13" s="4">
-        <v>1891</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>28124</v>
+        <v>28301</v>
       </c>
       <c r="C14" s="4">
-        <v>4802</v>
+        <v>4883</v>
       </c>
       <c r="D14" s="4">
-        <v>5219</v>
+        <v>5421</v>
       </c>
       <c r="E14" s="4">
-        <v>38145</v>
+        <v>38605</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>210859</v>
+        <v>212822</v>
       </c>
       <c r="C15" s="4">
-        <v>12702</v>
+        <v>12755</v>
       </c>
       <c r="D15" s="4">
-        <v>8977</v>
+        <v>9460</v>
       </c>
       <c r="E15" s="4">
-        <v>232538</v>
+        <v>235037</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1505603</v>
+        <v>1615874</v>
       </c>
       <c r="C16" s="4">
-        <v>40620</v>
+        <v>40921</v>
       </c>
       <c r="D16" s="4">
-        <v>141079</v>
+        <v>148104</v>
       </c>
       <c r="E16" s="4">
-        <v>1687302</v>
+        <v>1804899</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5000</v>
+        <v>5059</v>
       </c>
       <c r="C17" s="4">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D17" s="4">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E17" s="4">
-        <v>5709</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,16 +1343,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
       </c>
       <c r="E18" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7955</v>
+        <v>8023</v>
       </c>
       <c r="C19" s="4">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D19" s="4">
-        <v>3841</v>
+        <v>3967</v>
       </c>
       <c r="E19" s="4">
-        <v>12254</v>
+        <v>12449</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>53416</v>
+        <v>53944</v>
       </c>
       <c r="C20" s="4">
-        <v>9655</v>
+        <v>9686</v>
       </c>
       <c r="D20" s="4">
-        <v>7085</v>
+        <v>7737</v>
       </c>
       <c r="E20" s="4">
-        <v>70156</v>
+        <v>71367</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>264234</v>
+        <v>268534</v>
       </c>
       <c r="C21" s="4">
-        <v>8392</v>
+        <v>8507</v>
       </c>
       <c r="D21" s="4">
-        <v>22616</v>
+        <v>23983</v>
       </c>
       <c r="E21" s="4">
-        <v>295242</v>
+        <v>301024</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>206485</v>
+        <v>209310</v>
       </c>
       <c r="C22" s="4">
-        <v>5268</v>
+        <v>5304</v>
       </c>
       <c r="D22" s="4">
-        <v>11858</v>
+        <v>12670</v>
       </c>
       <c r="E22" s="4">
-        <v>223611</v>
+        <v>227284</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8312</v>
+        <v>8333</v>
       </c>
       <c r="C23" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="E23" s="4">
-        <v>8963</v>
+        <v>9046</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C24" s="4">
         <v>108</v>
       </c>
       <c r="D24" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12224</v>
+        <v>12463</v>
       </c>
       <c r="C25" s="4">
-        <v>1227</v>
+        <v>1249</v>
       </c>
       <c r="D25" s="4">
-        <v>1346</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="4">
-        <v>14797</v>
+        <v>15122</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15327</v>
+        <v>15561</v>
       </c>
       <c r="C26" s="4">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="D26" s="4">
-        <v>14421</v>
+        <v>14783</v>
       </c>
       <c r="E26" s="4">
-        <v>30451</v>
+        <v>31061</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12138</v>
+        <v>12304</v>
       </c>
       <c r="C27" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D27" s="4">
-        <v>1726</v>
+        <v>1841</v>
       </c>
       <c r="E27" s="4">
-        <v>14090</v>
+        <v>14372</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>28344</v>
+        <v>28673</v>
       </c>
       <c r="C28" s="4">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D28" s="4">
-        <v>2405</v>
+        <v>2519</v>
       </c>
       <c r="E28" s="4">
-        <v>31762</v>
+        <v>32211</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>28134</v>
+        <v>28588</v>
       </c>
       <c r="C29" s="4">
-        <v>1487</v>
+        <v>1496</v>
       </c>
       <c r="D29" s="4">
-        <v>4222</v>
+        <v>4411</v>
       </c>
       <c r="E29" s="4">
-        <v>33843</v>
+        <v>34495</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12023</v>
+        <v>12176</v>
       </c>
       <c r="C30" s="4">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="D30" s="4">
-        <v>3703</v>
+        <v>3809</v>
       </c>
       <c r="E30" s="4">
-        <v>16011</v>
+        <v>16294</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4698</v>
+        <v>4737</v>
       </c>
       <c r="C31" s="4">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D31" s="4">
-        <v>3768</v>
+        <v>4161</v>
       </c>
       <c r="E31" s="4">
-        <v>8679</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>215477</v>
+        <v>219376</v>
       </c>
       <c r="C32" s="4">
-        <v>7184</v>
+        <v>7255</v>
       </c>
       <c r="D32" s="4">
-        <v>31132</v>
+        <v>33783</v>
       </c>
       <c r="E32" s="4">
-        <v>253793</v>
+        <v>260414</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5212</v>
+        <v>5307</v>
       </c>
       <c r="C33" s="4">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D33" s="4">
-        <v>1335</v>
+        <v>1387</v>
       </c>
       <c r="E33" s="4">
-        <v>6888</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1464</v>
+        <v>1479</v>
       </c>
       <c r="C34" s="4">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="D34" s="4">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E34" s="4">
-        <v>2403</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10885</v>
+        <v>10988</v>
       </c>
       <c r="C35" s="4">
-        <v>3073</v>
+        <v>3080</v>
       </c>
       <c r="D35" s="4">
-        <v>2575</v>
+        <v>2685</v>
       </c>
       <c r="E35" s="4">
-        <v>16533</v>
+        <v>16753</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3557</v>
+        <v>3599</v>
       </c>
       <c r="C36" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D36" s="4">
-        <v>1464</v>
+        <v>1480</v>
       </c>
       <c r="E36" s="4">
-        <v>5236</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6953</v>
+        <v>7041</v>
       </c>
       <c r="C37" s="4">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D37" s="4">
-        <v>928</v>
+        <v>1015</v>
       </c>
       <c r="E37" s="4">
-        <v>8414</v>
+        <v>8593</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>20133</v>
+        <v>20494</v>
       </c>
       <c r="C38" s="4">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="D38" s="4">
-        <v>5947</v>
+        <v>6261</v>
       </c>
       <c r="E38" s="4">
-        <v>26797</v>
+        <v>27482</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="C39" s="4">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D39" s="4">
-        <v>3807</v>
+        <v>4026</v>
       </c>
       <c r="E39" s="4">
-        <v>6707</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3747</v>
+        <v>3796</v>
       </c>
       <c r="C40" s="4">
         <v>360</v>
       </c>
       <c r="D40" s="4">
-        <v>995</v>
+        <v>1056</v>
       </c>
       <c r="E40" s="4">
-        <v>5102</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E41" s="4">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1635</v>
+        <v>1646</v>
       </c>
       <c r="C42" s="4">
         <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="E42" s="4">
-        <v>3326</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2836</v>
+        <v>2857</v>
       </c>
       <c r="C43" s="4">
         <v>78</v>
       </c>
       <c r="D43" s="4">
-        <v>2187</v>
+        <v>2230</v>
       </c>
       <c r="E43" s="4">
-        <v>5101</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>767681</v>
+        <v>780143</v>
       </c>
       <c r="C44" s="4">
-        <v>74327</v>
+        <v>74858</v>
       </c>
       <c r="D44" s="4">
-        <v>66392</v>
+        <v>70077</v>
       </c>
       <c r="E44" s="4">
-        <v>908400</v>
+        <v>925078</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C45" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45" s="4">
-        <v>1092</v>
+        <v>1171</v>
       </c>
       <c r="E45" s="4">
-        <v>2133</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10458</v>
+        <v>10554</v>
       </c>
       <c r="C46" s="4">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D46" s="4">
-        <v>2902</v>
+        <v>3026</v>
       </c>
       <c r="E46" s="4">
-        <v>13615</v>
+        <v>13838</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>82029</v>
+        <v>84123</v>
       </c>
       <c r="C47" s="4">
-        <v>6268</v>
+        <v>6313</v>
       </c>
       <c r="D47" s="4">
-        <v>13824</v>
+        <v>14587</v>
       </c>
       <c r="E47" s="4">
-        <v>102121</v>
+        <v>105023</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6007</v>
+        <v>6049</v>
       </c>
       <c r="C48" s="4">
         <v>288</v>
       </c>
       <c r="D48" s="4">
-        <v>1883</v>
+        <v>1937</v>
       </c>
       <c r="E48" s="4">
-        <v>8178</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1314</v>
+        <v>1322</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1179</v>
+        <v>1256</v>
       </c>
       <c r="E49" s="4">
-        <v>2507</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21112</v>
+        <v>21305</v>
       </c>
       <c r="C50" s="4">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="D50" s="4">
-        <v>3839</v>
+        <v>3943</v>
       </c>
       <c r="E50" s="4">
-        <v>26166</v>
+        <v>26471</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>74635</v>
+        <v>75550</v>
       </c>
       <c r="C51" s="4">
-        <v>2083</v>
+        <v>2092</v>
       </c>
       <c r="D51" s="4">
-        <v>2294</v>
+        <v>2485</v>
       </c>
       <c r="E51" s="4">
-        <v>79012</v>
+        <v>80127</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C52" s="4">
         <v>20</v>
       </c>
       <c r="D52" s="4">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="E52" s="4">
-        <v>1263</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3899</v>
+        <v>4083</v>
       </c>
       <c r="C53" s="4">
         <v>63</v>
       </c>
       <c r="D53" s="4">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="E53" s="4">
-        <v>4913</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C54" s="4">
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1736</v>
+        <v>1763</v>
       </c>
       <c r="E54" s="4">
-        <v>2665</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2240</v>
+        <v>2264</v>
       </c>
       <c r="C55" s="4">
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1366</v>
+        <v>1394</v>
       </c>
       <c r="E55" s="4">
-        <v>3624</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1970</v>
+        <v>2048</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
       </c>
       <c r="D56" s="4">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E56" s="4">
-        <v>2087</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="C57" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D57" s="4">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="E57" s="4">
-        <v>2483</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1964729</v>
+        <v>1995465</v>
       </c>
       <c r="C58" s="4">
-        <v>122372</v>
+        <v>123291</v>
       </c>
       <c r="D58" s="4">
-        <v>140912</v>
+        <v>147279</v>
       </c>
       <c r="E58" s="4">
-        <v>2228013</v>
+        <v>2266035</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7089</v>
+        <v>7132</v>
       </c>
       <c r="C59" s="4">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D59" s="4">
-        <v>1778</v>
+        <v>1831</v>
       </c>
       <c r="E59" s="4">
-        <v>9295</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>7866</v>
+        <v>7944</v>
       </c>
       <c r="C60" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="4">
-        <v>1990</v>
+        <v>2038</v>
       </c>
       <c r="E60" s="4">
-        <v>10032</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4233</v>
+        <v>4282</v>
       </c>
       <c r="C61" s="4">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="D61" s="4">
-        <v>1722</v>
+        <v>1748</v>
       </c>
       <c r="E61" s="4">
-        <v>6653</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1548</v>
+        <v>1575</v>
       </c>
       <c r="C62" s="4">
         <v>208</v>
       </c>
       <c r="D62" s="4">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="E62" s="4">
-        <v>2652</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>478591</v>
+        <v>486763</v>
       </c>
       <c r="C63" s="4">
-        <v>54744</v>
+        <v>55178</v>
       </c>
       <c r="D63" s="4">
-        <v>58910</v>
+        <v>62558</v>
       </c>
       <c r="E63" s="4">
-        <v>592245</v>
+        <v>604499</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C64" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" s="4">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E64" s="4">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>8826</v>
+        <v>9076</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="E65" s="4">
-        <v>9633</v>
+        <v>9907</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="C66" s="4">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D66" s="4">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="E66" s="4">
-        <v>1949</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15447</v>
+        <v>15585</v>
       </c>
       <c r="C67" s="4">
-        <v>2114</v>
+        <v>2147</v>
       </c>
       <c r="D67" s="4">
-        <v>1243</v>
+        <v>1317</v>
       </c>
       <c r="E67" s="4">
-        <v>18804</v>
+        <v>19049</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4200</v>
+        <v>4281</v>
       </c>
       <c r="C68" s="4">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D68" s="4">
-        <v>2797</v>
+        <v>2884</v>
       </c>
       <c r="E68" s="4">
-        <v>7317</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>53250</v>
+        <v>53897</v>
       </c>
       <c r="C69" s="4">
-        <v>4172</v>
+        <v>4244</v>
       </c>
       <c r="D69" s="4">
-        <v>12776</v>
+        <v>13465</v>
       </c>
       <c r="E69" s="4">
-        <v>70198</v>
+        <v>71606</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1077</v>
+        <v>1094</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E70" s="4">
-        <v>1411</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>735472</v>
+        <v>750189</v>
       </c>
       <c r="C71" s="4">
-        <v>15564</v>
+        <v>15713</v>
       </c>
       <c r="D71" s="4">
-        <v>127518</v>
+        <v>144948</v>
       </c>
       <c r="E71" s="4">
-        <v>878554</v>
+        <v>910850</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>140795</v>
+        <v>142888</v>
       </c>
       <c r="C72" s="4">
-        <v>6626</v>
+        <v>6648</v>
       </c>
       <c r="D72" s="4">
-        <v>7294</v>
+        <v>7714</v>
       </c>
       <c r="E72" s="4">
-        <v>154715</v>
+        <v>157250</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>15549</v>
+        <v>15703</v>
       </c>
       <c r="C73" s="4">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="D73" s="4">
-        <v>4499</v>
+        <v>4791</v>
       </c>
       <c r="E73" s="4">
-        <v>21107</v>
+        <v>21558</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11302</v>
+        <v>11351</v>
       </c>
       <c r="C74" s="4">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D74" s="4">
-        <v>1392</v>
+        <v>1480</v>
       </c>
       <c r="E74" s="4">
-        <v>13080</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>22011</v>
+        <v>22466</v>
       </c>
       <c r="C75" s="4">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D75" s="4">
-        <v>3463</v>
+        <v>3588</v>
       </c>
       <c r="E75" s="4">
-        <v>26203</v>
+        <v>26791</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12276</v>
+        <v>12400</v>
       </c>
       <c r="C76" s="4">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D76" s="4">
-        <v>1570</v>
+        <v>1656</v>
       </c>
       <c r="E76" s="4">
-        <v>14204</v>
+        <v>14421</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C77" s="4">
         <v>28</v>
       </c>
       <c r="D77" s="4">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E77" s="4">
-        <v>1512</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2040</v>
+        <v>2088</v>
       </c>
       <c r="C78" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D78" s="4">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E78" s="4">
-        <v>2433</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="4">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E79" s="4">
-        <v>1075</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>541516</v>
+        <v>552272</v>
       </c>
       <c r="C80" s="4">
-        <v>20312</v>
+        <v>20622</v>
       </c>
       <c r="D80" s="4">
-        <v>23517</v>
+        <v>25362</v>
       </c>
       <c r="E80" s="4">
-        <v>585345</v>
+        <v>598256</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3855</v>
+        <v>3914</v>
       </c>
       <c r="C81" s="4">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D81" s="4">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="E81" s="4">
-        <v>4867</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12490</v>
+        <v>12557</v>
       </c>
       <c r="C82" s="4">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D82" s="4">
-        <v>3140</v>
+        <v>3594</v>
       </c>
       <c r="E82" s="4">
-        <v>16265</v>
+        <v>16789</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>14312</v>
+        <v>14630</v>
       </c>
       <c r="C83" s="4">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D83" s="4">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="E83" s="4">
-        <v>15252</v>
+        <v>15624</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3014</v>
+        <v>3049</v>
       </c>
       <c r="C84" s="4">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D84" s="4">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="E84" s="4">
-        <v>3885</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>275711</v>
+        <v>278963</v>
       </c>
       <c r="C85" s="4">
-        <v>8676</v>
+        <v>8790</v>
       </c>
       <c r="D85" s="4">
-        <v>17859</v>
+        <v>19184</v>
       </c>
       <c r="E85" s="4">
-        <v>302246</v>
+        <v>306937</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="C86" s="4">
         <v>45</v>
       </c>
       <c r="D86" s="4">
-        <v>1248</v>
+        <v>1270</v>
       </c>
       <c r="E86" s="4">
-        <v>2753</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14370</v>
+        <v>14481</v>
       </c>
       <c r="C87" s="4">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D87" s="4">
-        <v>2651</v>
+        <v>2773</v>
       </c>
       <c r="E87" s="4">
-        <v>17351</v>
+        <v>17590</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E88" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2301</v>
+        <v>2338</v>
       </c>
       <c r="C89" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D89" s="4">
-        <v>1371</v>
+        <v>1447</v>
       </c>
       <c r="E89" s="4">
-        <v>3816</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11453</v>
+        <v>11569</v>
       </c>
       <c r="C90" s="4">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D90" s="4">
-        <v>2579</v>
+        <v>2725</v>
       </c>
       <c r="E90" s="4">
-        <v>14313</v>
+        <v>14579</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6845</v>
+        <v>6879</v>
       </c>
       <c r="C91" s="4">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D91" s="4">
-        <v>1467</v>
+        <v>1514</v>
       </c>
       <c r="E91" s="4">
-        <v>9118</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>88117</v>
+        <v>91225</v>
       </c>
       <c r="C92" s="4">
-        <v>3496</v>
+        <v>3546</v>
       </c>
       <c r="D92" s="4">
-        <v>9709</v>
+        <v>10083</v>
       </c>
       <c r="E92" s="4">
-        <v>101322</v>
+        <v>104854</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>42422</v>
+        <v>43018</v>
       </c>
       <c r="C93" s="4">
-        <v>9197</v>
+        <v>9422</v>
       </c>
       <c r="D93" s="4">
-        <v>11853</v>
+        <v>12404</v>
       </c>
       <c r="E93" s="4">
-        <v>63472</v>
+        <v>64844</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>23505</v>
+        <v>23798</v>
       </c>
       <c r="C94" s="4">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D94" s="4">
-        <v>1429</v>
+        <v>1611</v>
       </c>
       <c r="E94" s="4">
-        <v>25384</v>
+        <v>25868</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>64842</v>
+        <v>67279</v>
       </c>
       <c r="C95" s="4">
-        <v>2878</v>
+        <v>2896</v>
       </c>
       <c r="D95" s="4">
-        <v>11689</v>
+        <v>12282</v>
       </c>
       <c r="E95" s="4">
-        <v>79409</v>
+        <v>82457</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11714</v>
+        <v>11844</v>
       </c>
       <c r="C96" s="4">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D96" s="4">
-        <v>1744</v>
+        <v>1791</v>
       </c>
       <c r="E96" s="4">
-        <v>13721</v>
+        <v>13905</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C97" s="4">
         <v>37</v>
       </c>
       <c r="D97" s="4">
-        <v>1841</v>
+        <v>1919</v>
       </c>
       <c r="E97" s="4">
-        <v>2960</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4416</v>
+        <v>4464</v>
       </c>
       <c r="C98" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D98" s="4">
-        <v>916</v>
+        <v>983</v>
       </c>
       <c r="E98" s="4">
-        <v>5620</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1144</v>
+        <v>1166</v>
       </c>
       <c r="C99" s="4">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D99" s="4">
-        <v>1549</v>
+        <v>1604</v>
       </c>
       <c r="E99" s="4">
-        <v>3196</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="C100" s="4">
         <v>176</v>
       </c>
       <c r="D100" s="4">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="E100" s="4">
-        <v>2365</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>17291</v>
+        <v>17571</v>
       </c>
       <c r="C101" s="4">
-        <v>3086</v>
+        <v>3097</v>
       </c>
       <c r="D101" s="4">
-        <v>4583</v>
+        <v>4782</v>
       </c>
       <c r="E101" s="4">
-        <v>24960</v>
+        <v>25450</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3312494</v>
+        <v>3379356</v>
       </c>
       <c r="C102" s="4">
-        <v>123074</v>
+        <v>124803</v>
       </c>
       <c r="D102" s="4">
-        <v>205021</v>
+        <v>218684</v>
       </c>
       <c r="E102" s="4">
-        <v>3640589</v>
+        <v>3722843</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>52280</v>
+        <v>52875</v>
       </c>
       <c r="C103" s="4">
-        <v>6779</v>
+        <v>6978</v>
       </c>
       <c r="D103" s="4">
-        <v>6723</v>
+        <v>7023</v>
       </c>
       <c r="E103" s="4">
-        <v>65782</v>
+        <v>66876</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1190</v>
+        <v>1242</v>
       </c>
       <c r="E105" s="4">
-        <v>2381</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>195953</v>
+        <v>198814</v>
       </c>
       <c r="C106" s="4">
-        <v>9892</v>
+        <v>9928</v>
       </c>
       <c r="D106" s="4">
-        <v>10503</v>
+        <v>11227</v>
       </c>
       <c r="E106" s="4">
-        <v>216348</v>
+        <v>219969</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C107" s="4">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D107" s="4">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E107" s="4">
-        <v>1344</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>23538</v>
+        <v>23812</v>
       </c>
       <c r="C108" s="4">
-        <v>2028</v>
+        <v>2040</v>
       </c>
       <c r="D108" s="4">
-        <v>5654</v>
+        <v>5909</v>
       </c>
       <c r="E108" s="4">
-        <v>31220</v>
+        <v>31761</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>382771</v>
+        <v>389174</v>
       </c>
       <c r="C109" s="4">
-        <v>13853</v>
+        <v>14057</v>
       </c>
       <c r="D109" s="4">
-        <v>76561</v>
+        <v>81969</v>
       </c>
       <c r="E109" s="4">
-        <v>473185</v>
+        <v>485200</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>29676</v>
+        <v>30013</v>
       </c>
       <c r="C110" s="4">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D110" s="4">
-        <v>4484</v>
+        <v>4659</v>
       </c>
       <c r="E110" s="4">
-        <v>35110</v>
+        <v>35624</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6926</v>
+        <v>7050</v>
       </c>
       <c r="C111" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D111" s="4">
-        <v>2631</v>
+        <v>2665</v>
       </c>
       <c r="E111" s="4">
-        <v>9634</v>
+        <v>9793</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>30772</v>
+        <v>31238</v>
       </c>
       <c r="C112" s="4">
-        <v>2240</v>
+        <v>2261</v>
       </c>
       <c r="D112" s="4">
-        <v>15270</v>
+        <v>15551</v>
       </c>
       <c r="E112" s="4">
-        <v>48282</v>
+        <v>49050</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15041</v>
+        <v>15250</v>
       </c>
       <c r="C113" s="4">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="D113" s="4">
-        <v>2243</v>
+        <v>2348</v>
       </c>
       <c r="E113" s="4">
-        <v>19087</v>
+        <v>19409</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13648</v>
+        <v>13859</v>
       </c>
       <c r="C114" s="4">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D114" s="4">
-        <v>2055</v>
+        <v>2271</v>
       </c>
       <c r="E114" s="4">
-        <v>16023</v>
+        <v>16454</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>14145</v>
+        <v>14375</v>
       </c>
       <c r="C115" s="4">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D115" s="4">
-        <v>3260</v>
+        <v>3340</v>
       </c>
       <c r="E115" s="4">
-        <v>17827</v>
+        <v>18155</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2167</v>
+        <v>2272</v>
       </c>
       <c r="C116" s="4">
         <v>29</v>
       </c>
       <c r="D116" s="4">
-        <v>866</v>
+        <v>954</v>
       </c>
       <c r="E116" s="4">
-        <v>3062</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>65987</v>
+        <v>66854</v>
       </c>
       <c r="C117" s="4">
-        <v>3371</v>
+        <v>3402</v>
       </c>
       <c r="D117" s="4">
-        <v>7458</v>
+        <v>7745</v>
       </c>
       <c r="E117" s="4">
-        <v>76816</v>
+        <v>78001</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7876</v>
+        <v>7931</v>
       </c>
       <c r="C118" s="4">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="D118" s="4">
-        <v>2652</v>
+        <v>2801</v>
       </c>
       <c r="E118" s="4">
-        <v>11602</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
       </c>
       <c r="D119" s="4">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E119" s="4">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1494</v>
+        <v>1555</v>
       </c>
       <c r="C120" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D120" s="4">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E120" s="4">
-        <v>1898</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6313</v>
+        <v>6377</v>
       </c>
       <c r="C121" s="4">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D121" s="4">
-        <v>944</v>
+        <v>971</v>
       </c>
       <c r="E121" s="4">
-        <v>7375</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11581</v>
+        <v>11771</v>
       </c>
       <c r="C122" s="4">
-        <v>2484</v>
+        <v>2490</v>
       </c>
       <c r="D122" s="4">
-        <v>2579</v>
+        <v>2709</v>
       </c>
       <c r="E122" s="4">
-        <v>16644</v>
+        <v>16970</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="C123" s="4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D123" s="4">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E123" s="4">
-        <v>1925</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>141375</v>
+        <v>142748</v>
       </c>
       <c r="C124" s="4">
-        <v>11612</v>
+        <v>11660</v>
       </c>
       <c r="D124" s="4">
-        <v>23465</v>
+        <v>24850</v>
       </c>
       <c r="E124" s="4">
-        <v>176452</v>
+        <v>179258</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>11773</v>
+        <v>12076</v>
       </c>
       <c r="C125" s="4">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D125" s="4">
-        <v>2955</v>
+        <v>3090</v>
       </c>
       <c r="E125" s="4">
-        <v>15187</v>
+        <v>15634</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>42202</v>
+        <v>42624</v>
       </c>
       <c r="C126" s="4">
-        <v>6838</v>
+        <v>6952</v>
       </c>
       <c r="D126" s="4">
-        <v>10275</v>
+        <v>10856</v>
       </c>
       <c r="E126" s="4">
-        <v>59315</v>
+        <v>60432</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>101297</v>
+        <v>102624</v>
       </c>
       <c r="C127" s="4">
-        <v>6135</v>
+        <v>6164</v>
       </c>
       <c r="D127" s="4">
-        <v>11060</v>
+        <v>11578</v>
       </c>
       <c r="E127" s="4">
-        <v>118492</v>
+        <v>120366</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5363</v>
+        <v>5389</v>
       </c>
       <c r="C128" s="4">
         <v>188</v>
       </c>
       <c r="D128" s="4">
-        <v>2256</v>
+        <v>2340</v>
       </c>
       <c r="E128" s="4">
-        <v>7807</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12068</v>
+        <v>12244</v>
       </c>
       <c r="C129" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D129" s="4">
-        <v>3551</v>
+        <v>3752</v>
       </c>
       <c r="E129" s="4">
-        <v>15986</v>
+        <v>16364</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>88394</v>
+        <v>89866</v>
       </c>
       <c r="C130" s="4">
-        <v>4737</v>
+        <v>4781</v>
       </c>
       <c r="D130" s="4">
-        <v>11659</v>
+        <v>12408</v>
       </c>
       <c r="E130" s="4">
-        <v>104790</v>
+        <v>107055</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>19284</v>
+        <v>19939</v>
       </c>
       <c r="C131" s="4">
-        <v>1155</v>
+        <v>1167</v>
       </c>
       <c r="D131" s="4">
-        <v>5751</v>
+        <v>6073</v>
       </c>
       <c r="E131" s="4">
-        <v>26190</v>
+        <v>27179</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C132" s="4">
         <v>32</v>
@@ -3290,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="E132" s="4">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E133" s="4">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>27289</v>
+        <v>27820</v>
       </c>
       <c r="C134" s="4">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D134" s="4">
-        <v>15846</v>
+        <v>16269</v>
       </c>
       <c r="E134" s="4">
-        <v>43692</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1496</v>
+        <v>1508</v>
       </c>
       <c r="C135" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D135" s="4">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E135" s="4">
-        <v>1812</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3355,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="D136" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E136" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1857</v>
+        <v>1868</v>
       </c>
       <c r="C137" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D137" s="4">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E137" s="4">
-        <v>1985</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>23527</v>
+        <v>23722</v>
       </c>
       <c r="C138" s="4">
-        <v>3822</v>
+        <v>3898</v>
       </c>
       <c r="D138" s="4">
-        <v>4684</v>
+        <v>4989</v>
       </c>
       <c r="E138" s="4">
-        <v>32033</v>
+        <v>32609</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,13 +3403,13 @@
         <v>625</v>
       </c>
       <c r="C139" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2009</v>
+        <v>2334</v>
       </c>
       <c r="E139" s="4">
-        <v>2672</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6378</v>
+        <v>6455</v>
       </c>
       <c r="C140" s="4">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D140" s="4">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E140" s="4">
-        <v>6856</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>19137</v>
+        <v>19515</v>
       </c>
       <c r="C141" s="4">
-        <v>2038</v>
+        <v>2058</v>
       </c>
       <c r="D141" s="4">
-        <v>2327</v>
+        <v>2553</v>
       </c>
       <c r="E141" s="4">
-        <v>23502</v>
+        <v>24126</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5079</v>
+        <v>5127</v>
       </c>
       <c r="C142" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D142" s="4">
-        <v>3592</v>
+        <v>3757</v>
       </c>
       <c r="E142" s="4">
-        <v>8752</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14212</v>
+        <v>14381</v>
       </c>
       <c r="C143" s="4">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D143" s="4">
-        <v>2563</v>
+        <v>2641</v>
       </c>
       <c r="E143" s="4">
-        <v>17362</v>
+        <v>17611</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10198</v>
+        <v>10326</v>
       </c>
       <c r="C144" s="4">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D144" s="4">
-        <v>2103</v>
+        <v>2219</v>
       </c>
       <c r="E144" s="4">
-        <v>12689</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7003</v>
+        <v>7097</v>
       </c>
       <c r="C145" s="4">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D145" s="4">
-        <v>2146</v>
+        <v>2224</v>
       </c>
       <c r="E145" s="4">
-        <v>9351</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8232</v>
+        <v>8317</v>
       </c>
       <c r="C146" s="4">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D146" s="4">
-        <v>1239</v>
+        <v>1329</v>
       </c>
       <c r="E146" s="4">
-        <v>9931</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>44158</v>
+        <v>44874</v>
       </c>
       <c r="C147" s="4">
-        <v>2819</v>
+        <v>2850</v>
       </c>
       <c r="D147" s="4">
-        <v>4040</v>
+        <v>4244</v>
       </c>
       <c r="E147" s="4">
-        <v>51017</v>
+        <v>51968</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>26403</v>
+        <v>26757</v>
       </c>
       <c r="C148" s="4">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D148" s="4">
-        <v>3853</v>
+        <v>4343</v>
       </c>
       <c r="E148" s="4">
-        <v>30816</v>
+        <v>31661</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C149" s="4">
         <v>154</v>
       </c>
       <c r="D149" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E149" s="4">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4372</v>
+        <v>4444</v>
       </c>
       <c r="C150" s="4">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D150" s="4">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="E150" s="4">
-        <v>5750</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8680</v>
+        <v>8768</v>
       </c>
       <c r="C151" s="4">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D151" s="4">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="E151" s="4">
-        <v>9702</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>174880</v>
+        <v>177075</v>
       </c>
       <c r="C153" s="4">
-        <v>6199</v>
+        <v>6251</v>
       </c>
       <c r="D153" s="4">
-        <v>77158</v>
+        <v>79023</v>
       </c>
       <c r="E153" s="4">
-        <v>258237</v>
+        <v>262349</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2685</v>
+        <v>2698</v>
       </c>
       <c r="C154" s="4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D154" s="4">
-        <v>1375</v>
+        <v>1410</v>
       </c>
       <c r="E154" s="4">
-        <v>4148</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10747</v>
+        <v>10812</v>
       </c>
       <c r="C155" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D155" s="4">
-        <v>1396</v>
+        <v>1480</v>
       </c>
       <c r="E155" s="4">
-        <v>12297</v>
+        <v>12448</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2083</v>
+        <v>2143</v>
       </c>
       <c r="C156" s="4">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="D156" s="4">
-        <v>1186</v>
+        <v>1205</v>
       </c>
       <c r="E156" s="4">
-        <v>3955</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="C157" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D157" s="4">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E157" s="4">
-        <v>1650</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1819</v>
+        <v>1835</v>
       </c>
       <c r="C158" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D158" s="4">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E158" s="4">
-        <v>2074</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>26541</v>
+        <v>27046</v>
       </c>
       <c r="C159" s="4">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D159" s="4">
-        <v>1635</v>
+        <v>1684</v>
       </c>
       <c r="E159" s="4">
-        <v>28788</v>
+        <v>29348</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>50766</v>
+        <v>51268</v>
       </c>
       <c r="C160" s="4">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D160" s="4">
-        <v>4003</v>
+        <v>4378</v>
       </c>
       <c r="E160" s="4">
-        <v>55061</v>
+        <v>55944</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2144</v>
+        <v>2171</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>885</v>
+        <v>918</v>
       </c>
       <c r="E161" s="4">
-        <v>3066</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>201040</v>
+        <v>202931</v>
       </c>
       <c r="C162" s="4">
-        <v>9324</v>
+        <v>9334</v>
       </c>
       <c r="D162" s="4">
-        <v>39988</v>
+        <v>41055</v>
       </c>
       <c r="E162" s="4">
-        <v>250352</v>
+        <v>253320</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C163" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D163" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E163" s="4">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>23686</v>
+        <v>24681</v>
       </c>
       <c r="C164" s="4">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="D164" s="4">
-        <v>3533</v>
+        <v>3756</v>
       </c>
       <c r="E164" s="4">
-        <v>28181</v>
+        <v>29410</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E165" s="4">
-        <v>2227</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>39584</v>
+        <v>40141</v>
       </c>
       <c r="C166" s="4">
-        <v>5127</v>
+        <v>5191</v>
       </c>
       <c r="D166" s="4">
-        <v>29763</v>
+        <v>30722</v>
       </c>
       <c r="E166" s="4">
-        <v>74474</v>
+        <v>76054</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13991</v>
+        <v>14182</v>
       </c>
       <c r="C167" s="4">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D167" s="4">
-        <v>4454</v>
+        <v>4646</v>
       </c>
       <c r="E167" s="4">
-        <v>19258</v>
+        <v>19644</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3807</v>
+        <v>3831</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>869</v>
+        <v>951</v>
       </c>
       <c r="E168" s="4">
-        <v>4758</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4061</v>
+        <v>4074</v>
       </c>
       <c r="C169" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D169" s="4">
-        <v>2083</v>
+        <v>2116</v>
       </c>
       <c r="E169" s="4">
-        <v>6191</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9171</v>
+        <v>9292</v>
       </c>
       <c r="C170" s="4">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D170" s="4">
-        <v>2149</v>
+        <v>2253</v>
       </c>
       <c r="E170" s="4">
-        <v>12061</v>
+        <v>12290</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>300342</v>
+        <v>306004</v>
       </c>
       <c r="C171" s="4">
-        <v>15120</v>
+        <v>15372</v>
       </c>
       <c r="D171" s="4">
-        <v>27629</v>
+        <v>29594</v>
       </c>
       <c r="E171" s="4">
-        <v>343091</v>
+        <v>350970</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6838</v>
+        <v>6869</v>
       </c>
       <c r="C172" s="4">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D172" s="4">
-        <v>1384</v>
+        <v>1413</v>
       </c>
       <c r="E172" s="4">
-        <v>8886</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4890</v>
+        <v>4970</v>
       </c>
       <c r="C173" s="4">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D173" s="4">
-        <v>2969</v>
+        <v>3094</v>
       </c>
       <c r="E173" s="4">
-        <v>8491</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C174" s="4">
         <v>9</v>
       </c>
       <c r="D174" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E174" s="4">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>35566</v>
+        <v>36014</v>
       </c>
       <c r="C175" s="4">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="D175" s="4">
-        <v>4188</v>
+        <v>4583</v>
       </c>
       <c r="E175" s="4">
-        <v>40811</v>
+        <v>41672</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>22702</v>
+        <v>22861</v>
       </c>
       <c r="C176" s="4">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="D176" s="4">
-        <v>6569</v>
+        <v>6781</v>
       </c>
       <c r="E176" s="4">
-        <v>30747</v>
+        <v>31126</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2937</v>
+        <v>2992</v>
       </c>
       <c r="C177" s="4">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D177" s="4">
-        <v>1459</v>
+        <v>1539</v>
       </c>
       <c r="E177" s="4">
-        <v>5141</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6404</v>
+        <v>6441</v>
       </c>
       <c r="C178" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D178" s="4">
-        <v>2387</v>
+        <v>2491</v>
       </c>
       <c r="E178" s="4">
-        <v>8925</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>188135</v>
+        <v>190591</v>
       </c>
       <c r="C179" s="4">
-        <v>36707</v>
+        <v>37224</v>
       </c>
       <c r="D179" s="4">
-        <v>34086</v>
+        <v>35952</v>
       </c>
       <c r="E179" s="4">
-        <v>258928</v>
+        <v>263767</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C180" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D180" s="4">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E180" s="4">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C181" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D181" s="4">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E181" s="4">
-        <v>1087</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>23620</v>
+        <v>24023</v>
       </c>
       <c r="C182" s="4">
-        <v>5024</v>
+        <v>5053</v>
       </c>
       <c r="D182" s="4">
-        <v>6969</v>
+        <v>7424</v>
       </c>
       <c r="E182" s="4">
-        <v>35613</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11809</v>
+        <v>11987</v>
       </c>
       <c r="C183" s="4">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="D183" s="4">
-        <v>3569</v>
+        <v>3755</v>
       </c>
       <c r="E183" s="4">
-        <v>16251</v>
+        <v>16628</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7731</v>
+        <v>7887</v>
       </c>
       <c r="C184" s="4">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="D184" s="4">
-        <v>2100</v>
+        <v>2331</v>
       </c>
       <c r="E184" s="4">
-        <v>10756</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>58167</v>
+        <v>59249</v>
       </c>
       <c r="C185" s="4">
-        <v>5589</v>
+        <v>5627</v>
       </c>
       <c r="D185" s="4">
-        <v>13081</v>
+        <v>13585</v>
       </c>
       <c r="E185" s="4">
-        <v>76837</v>
+        <v>78461</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1709</v>
+        <v>1730</v>
       </c>
       <c r="C186" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D186" s="4">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="E186" s="4">
-        <v>2819</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8854</v>
+        <v>9139</v>
       </c>
       <c r="C187" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D187" s="4">
-        <v>747</v>
+        <v>791</v>
       </c>
       <c r="E187" s="4">
-        <v>9684</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>27151</v>
+        <v>27563</v>
       </c>
       <c r="C188" s="4">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="D188" s="4">
-        <v>3972</v>
+        <v>4251</v>
       </c>
       <c r="E188" s="4">
-        <v>32198</v>
+        <v>32895</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>63888</v>
+        <v>64803</v>
       </c>
       <c r="C189" s="4">
-        <v>5992</v>
+        <v>6039</v>
       </c>
       <c r="D189" s="4">
-        <v>8317</v>
+        <v>8761</v>
       </c>
       <c r="E189" s="4">
-        <v>78197</v>
+        <v>79603</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7014</v>
+        <v>7027</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>952</v>
+        <v>1003</v>
       </c>
       <c r="E190" s="4">
-        <v>8001</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2436</v>
+        <v>2481</v>
       </c>
       <c r="C191" s="4">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D191" s="4">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="E191" s="4">
-        <v>3302</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>40727</v>
+        <v>41264</v>
       </c>
       <c r="C192" s="4">
-        <v>12161</v>
+        <v>12238</v>
       </c>
       <c r="D192" s="4">
-        <v>8094</v>
+        <v>8514</v>
       </c>
       <c r="E192" s="4">
-        <v>60982</v>
+        <v>62016</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>27</v>
       </c>
       <c r="D193" s="4">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E193" s="4">
-        <v>1197</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1690</v>
+        <v>1725</v>
       </c>
       <c r="C194" s="4">
         <v>64</v>
       </c>
       <c r="D194" s="4">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E194" s="4">
-        <v>2172</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5206</v>
+        <v>5282</v>
       </c>
       <c r="C195" s="4">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D195" s="4">
-        <v>1102</v>
+        <v>1176</v>
       </c>
       <c r="E195" s="4">
-        <v>6781</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4934</v>
+        <v>5385</v>
       </c>
       <c r="C196" s="4">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D196" s="4">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="E196" s="4">
-        <v>5648</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3551</v>
+        <v>3591</v>
       </c>
       <c r="C197" s="4">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D197" s="4">
-        <v>2093</v>
+        <v>2285</v>
       </c>
       <c r="E197" s="4">
-        <v>5984</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,16 +4403,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C198" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D198" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E198" s="4">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10121</v>
+        <v>10238</v>
       </c>
       <c r="C199" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D199" s="4">
-        <v>4986</v>
+        <v>5167</v>
       </c>
       <c r="E199" s="4">
-        <v>15358</v>
+        <v>15658</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>62717</v>
+        <v>63525</v>
       </c>
       <c r="C200" s="4">
-        <v>4771</v>
+        <v>4824</v>
       </c>
       <c r="D200" s="4">
-        <v>3930</v>
+        <v>4089</v>
       </c>
       <c r="E200" s="4">
-        <v>71418</v>
+        <v>72438</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5265</v>
+        <v>5280</v>
       </c>
       <c r="C201" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D201" s="4">
-        <v>2195</v>
+        <v>2272</v>
       </c>
       <c r="E201" s="4">
-        <v>7600</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16092</v>
+        <v>16246</v>
       </c>
       <c r="C202" s="4">
-        <v>1825</v>
+        <v>1853</v>
       </c>
       <c r="D202" s="4">
-        <v>1792</v>
+        <v>1880</v>
       </c>
       <c r="E202" s="4">
-        <v>19709</v>
+        <v>19979</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5085</v>
+        <v>5199</v>
       </c>
       <c r="C203" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D203" s="4">
-        <v>1534</v>
+        <v>1618</v>
       </c>
       <c r="E203" s="4">
-        <v>6982</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4752</v>
+        <v>4798</v>
       </c>
       <c r="C204" s="4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D204" s="4">
-        <v>1440</v>
+        <v>1523</v>
       </c>
       <c r="E204" s="4">
-        <v>6256</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>13570</v>
+        <v>13950</v>
       </c>
       <c r="C205" s="4">
-        <v>1364</v>
+        <v>1377</v>
       </c>
       <c r="D205" s="4">
-        <v>1978</v>
+        <v>2122</v>
       </c>
       <c r="E205" s="4">
-        <v>16912</v>
+        <v>17449</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>25463</v>
+        <v>25928</v>
       </c>
       <c r="C206" s="4">
-        <v>6684</v>
+        <v>6752</v>
       </c>
       <c r="D206" s="4">
-        <v>11401</v>
+        <v>11956</v>
       </c>
       <c r="E206" s="4">
-        <v>43548</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2440</v>
+        <v>2455</v>
       </c>
       <c r="C207" s="4">
         <v>77</v>
       </c>
       <c r="D207" s="4">
-        <v>1571</v>
+        <v>1631</v>
       </c>
       <c r="E207" s="4">
-        <v>4088</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E208" s="4">
-        <v>1174</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15488</v>
+        <v>15513</v>
       </c>
       <c r="C209" s="4">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D209" s="4">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="E209" s="4">
-        <v>16182</v>
+        <v>16237</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C210" s="4">
         <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E210" s="4">
-        <v>1095</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10365</v>
+        <v>10486</v>
       </c>
       <c r="C211" s="4">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D211" s="4">
-        <v>2312</v>
+        <v>2390</v>
       </c>
       <c r="E211" s="4">
-        <v>13060</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C212" s="4">
         <v>97</v>
       </c>
       <c r="D212" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E212" s="4">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>157095</v>
+        <v>158900</v>
       </c>
       <c r="C213" s="4">
-        <v>8748</v>
+        <v>8786</v>
       </c>
       <c r="D213" s="4">
-        <v>15879</v>
+        <v>16692</v>
       </c>
       <c r="E213" s="4">
-        <v>181722</v>
+        <v>184378</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3688</v>
+        <v>3720</v>
       </c>
       <c r="C214" s="4">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D214" s="4">
-        <v>3578</v>
+        <v>3604</v>
       </c>
       <c r="E214" s="4">
-        <v>7623</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>43082</v>
+        <v>43834</v>
       </c>
       <c r="C215" s="4">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D215" s="4">
-        <v>5542</v>
+        <v>6179</v>
       </c>
       <c r="E215" s="4">
-        <v>49141</v>
+        <v>50539</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2386</v>
+        <v>2406</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1324</v>
+        <v>1372</v>
       </c>
       <c r="E216" s="4">
-        <v>3839</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E217" s="4">
-        <v>894</v>
+        <v>901</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E218" s="4">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="C219" s="4">
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E219" s="4">
-        <v>1799</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3185</v>
+        <v>3205</v>
       </c>
       <c r="C220" s="4">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D220" s="4">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="E220" s="4">
-        <v>4106</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1367850</v>
+        <v>1389480</v>
       </c>
       <c r="C221" s="4">
-        <v>84278</v>
+        <v>84837</v>
       </c>
       <c r="D221" s="4">
-        <v>128140</v>
+        <v>133711</v>
       </c>
       <c r="E221" s="4">
-        <v>1580268</v>
+        <v>1608028</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>76239</v>
+        <v>76723</v>
       </c>
       <c r="C222" s="4">
-        <v>3039</v>
+        <v>3057</v>
       </c>
       <c r="D222" s="4">
-        <v>33330</v>
+        <v>35226</v>
       </c>
       <c r="E222" s="4">
-        <v>112608</v>
+        <v>115006</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E223" s="4">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2880</v>
+        <v>2957</v>
       </c>
       <c r="C224" s="4">
         <v>103</v>
       </c>
       <c r="D224" s="4">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="E224" s="4">
-        <v>3953</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C225" s="4">
         <v>25</v>
       </c>
       <c r="D225" s="4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E225" s="4">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20092</v>
+        <v>20329</v>
       </c>
       <c r="C226" s="4">
-        <v>1047</v>
+        <v>1071</v>
       </c>
       <c r="D226" s="4">
-        <v>2942</v>
+        <v>3056</v>
       </c>
       <c r="E226" s="4">
-        <v>24081</v>
+        <v>24456</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>67136</v>
+        <v>67508</v>
       </c>
       <c r="C227" s="4">
-        <v>1433</v>
+        <v>1442</v>
       </c>
       <c r="D227" s="4">
-        <v>34208</v>
+        <v>34704</v>
       </c>
       <c r="E227" s="4">
-        <v>102777</v>
+        <v>103654</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>826874</v>
+        <v>842131</v>
       </c>
       <c r="C228" s="4">
-        <v>37639</v>
+        <v>37805</v>
       </c>
       <c r="D228" s="4">
-        <v>94009</v>
+        <v>99483</v>
       </c>
       <c r="E228" s="4">
-        <v>958522</v>
+        <v>979419</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9165</v>
+        <v>9379</v>
       </c>
       <c r="C229" s="4">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D229" s="4">
-        <v>2093</v>
+        <v>2164</v>
       </c>
       <c r="E229" s="4">
-        <v>11474</v>
+        <v>11765</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7694</v>
+        <v>7826</v>
       </c>
       <c r="C230" s="4">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D230" s="4">
-        <v>3602</v>
+        <v>3671</v>
       </c>
       <c r="E230" s="4">
-        <v>12133</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9329</v>
+        <v>9470</v>
       </c>
       <c r="C231" s="4">
-        <v>1832</v>
+        <v>1866</v>
       </c>
       <c r="D231" s="4">
-        <v>2828</v>
+        <v>2929</v>
       </c>
       <c r="E231" s="4">
-        <v>13989</v>
+        <v>14265</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="C232" s="4">
         <v>66</v>
       </c>
       <c r="D232" s="4">
-        <v>1365</v>
+        <v>1410</v>
       </c>
       <c r="E232" s="4">
-        <v>2184</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>21666</v>
+        <v>21946</v>
       </c>
       <c r="C233" s="4">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D233" s="4">
-        <v>956</v>
+        <v>1029</v>
       </c>
       <c r="E233" s="4">
-        <v>22958</v>
+        <v>23315</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>37971</v>
+        <v>38229</v>
       </c>
       <c r="C234" s="4">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="D234" s="4">
-        <v>6109</v>
+        <v>6417</v>
       </c>
       <c r="E234" s="4">
-        <v>45176</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16053</v>
+        <v>16301</v>
       </c>
       <c r="C235" s="4">
-        <v>1671</v>
+        <v>1687</v>
       </c>
       <c r="D235" s="4">
-        <v>4811</v>
+        <v>5000</v>
       </c>
       <c r="E235" s="4">
-        <v>22535</v>
+        <v>22988</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>34171</v>
+        <v>34591</v>
       </c>
       <c r="C236" s="4">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="D236" s="4">
-        <v>10742</v>
+        <v>11255</v>
       </c>
       <c r="E236" s="4">
-        <v>46295</v>
+        <v>47247</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>85350</v>
+        <v>86699</v>
       </c>
       <c r="C237" s="4">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D237" s="4">
-        <v>6195</v>
+        <v>6559</v>
       </c>
       <c r="E237" s="4">
-        <v>92630</v>
+        <v>94345</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>26741</v>
+        <v>27282</v>
       </c>
       <c r="C238" s="4">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="D238" s="4">
-        <v>1733</v>
+        <v>1872</v>
       </c>
       <c r="E238" s="4">
-        <v>29175</v>
+        <v>29868</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4107</v>
+        <v>4152</v>
       </c>
       <c r="C239" s="4">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D239" s="4">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="E239" s="4">
-        <v>4509</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>31823</v>
+        <v>32200</v>
       </c>
       <c r="C240" s="4">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D240" s="4">
-        <v>4013</v>
+        <v>4455</v>
       </c>
       <c r="E240" s="4">
-        <v>36346</v>
+        <v>37170</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>310929</v>
+        <v>314721</v>
       </c>
       <c r="C241" s="4">
-        <v>4178</v>
+        <v>4212</v>
       </c>
       <c r="D241" s="4">
-        <v>32717</v>
+        <v>34038</v>
       </c>
       <c r="E241" s="4">
-        <v>347824</v>
+        <v>352971</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>27165</v>
+        <v>27584</v>
       </c>
       <c r="C242" s="4">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="D242" s="4">
-        <v>1952</v>
+        <v>2080</v>
       </c>
       <c r="E242" s="4">
-        <v>29845</v>
+        <v>30402</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1488</v>
+        <v>1496</v>
       </c>
       <c r="C243" s="4">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D243" s="4">
-        <v>1711</v>
+        <v>1766</v>
       </c>
       <c r="E243" s="4">
-        <v>3475</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>95798</v>
+        <v>96262</v>
       </c>
       <c r="C244" s="4">
-        <v>4904</v>
+        <v>4944</v>
       </c>
       <c r="D244" s="4">
-        <v>16216</v>
+        <v>16898</v>
       </c>
       <c r="E244" s="4">
-        <v>116918</v>
+        <v>118104</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10324</v>
+        <v>10449</v>
       </c>
       <c r="C245" s="4">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D245" s="4">
-        <v>3329</v>
+        <v>3482</v>
       </c>
       <c r="E245" s="4">
-        <v>14117</v>
+        <v>14397</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>19665</v>
+        <v>20159</v>
       </c>
       <c r="C246" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D246" s="4">
-        <v>1030</v>
+        <v>1151</v>
       </c>
       <c r="E246" s="4">
-        <v>20855</v>
+        <v>21473</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>352154</v>
+        <v>357752</v>
       </c>
       <c r="C247" s="4">
-        <v>13404</v>
+        <v>13487</v>
       </c>
       <c r="D247" s="4">
-        <v>39915</v>
+        <v>42576</v>
       </c>
       <c r="E247" s="4">
-        <v>405473</v>
+        <v>413815</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>26730</v>
+        <v>27815</v>
       </c>
       <c r="C248" s="4">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="D248" s="4">
-        <v>5593</v>
+        <v>5818</v>
       </c>
       <c r="E248" s="4">
-        <v>33173</v>
+        <v>34497</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="C249" s="4">
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E249" s="4">
-        <v>1109</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>39085</v>
+        <v>39891</v>
       </c>
       <c r="C250" s="4">
-        <v>2939</v>
+        <v>2963</v>
       </c>
       <c r="D250" s="4">
-        <v>4244</v>
+        <v>4378</v>
       </c>
       <c r="E250" s="4">
-        <v>46268</v>
+        <v>47232</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14426</v>
+        <v>14552</v>
       </c>
       <c r="C251" s="4">
-        <v>1712</v>
+        <v>1721</v>
       </c>
       <c r="D251" s="4">
-        <v>2835</v>
+        <v>2959</v>
       </c>
       <c r="E251" s="4">
-        <v>18973</v>
+        <v>19232</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C252" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D252" s="4">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="E252" s="4">
-        <v>2584</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6099</v>
+        <v>6198</v>
       </c>
       <c r="C253" s="4">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D253" s="4">
-        <v>1312</v>
+        <v>1380</v>
       </c>
       <c r="E253" s="4">
-        <v>7913</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>14750</v>
+        <v>14921</v>
       </c>
       <c r="C254" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D254" s="4">
-        <v>3147</v>
+        <v>3225</v>
       </c>
       <c r="E254" s="4">
-        <v>18013</v>
+        <v>18263</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8548</v>
+        <v>8685</v>
       </c>
       <c r="C255" s="4">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D255" s="4">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="E255" s="4">
-        <v>9138</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>128441</v>
+        <v>129746</v>
       </c>
       <c r="C256" s="4">
-        <v>6233</v>
+        <v>6808</v>
       </c>
       <c r="D256" s="4">
-        <v>3330</v>
+        <v>3685</v>
       </c>
       <c r="E256" s="4">
-        <v>138004</v>
+        <v>140239</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>18810731</v>
+        <v>19212601</v>
       </c>
       <c r="C257" s="4">
-        <v>987853</v>
+        <v>997801</v>
       </c>
       <c r="D257" s="4">
-        <v>2200714</v>
+        <v>2326715</v>
       </c>
       <c r="E257" s="4">
-        <v>21999298</v>
+        <v>22537117</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
